--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAECFA6-DC89-4549-BBD0-1BDD7AF6685B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12979DD7-6DA2-4525-A9F5-18E80E0325EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
   <si>
     <t>TestCase</t>
   </si>
@@ -221,15 +221,6 @@
     <t>TC29_VerifyALL_Links_Myaccount</t>
   </si>
   <si>
-    <t>Uname1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>LoginButton1</t>
-  </si>
-  <si>
     <t>$BaseURL</t>
   </si>
   <si>
@@ -240,6 +231,12 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>LoginURL</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
   </si>
 </sst>
 </file>
@@ -667,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60:D63"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -721,104 +718,102 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>68</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
@@ -826,70 +821,70 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
@@ -897,13 +892,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -912,126 +907,126 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
@@ -1039,126 +1034,126 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>15</v>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
@@ -1166,70 +1161,70 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
+      <c r="B37" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
-        <v>15</v>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
@@ -1237,70 +1232,70 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>62</v>
+      <c r="B42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
-        <v>15</v>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
@@ -1308,126 +1303,126 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>63</v>
+      <c r="B47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
-      <c r="B48" s="4" t="s">
-        <v>15</v>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>64</v>
+      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="4" t="s">
-        <v>15</v>
+      <c r="B52" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
@@ -1435,133 +1430,148 @@
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>11</v>
+      <c r="B56" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="4" t="s">
-        <v>15</v>
+      <c r="B57" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3"/>
-      <c r="B61" s="3" t="s">
-        <v>11</v>
+      <c r="B61" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="4" t="s">
-        <v>15</v>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="D64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1599,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1607,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1615,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1943,6 +1953,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2139,15 +2158,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
@@ -2158,6 +2168,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2174,12 +2192,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/ALL_PAGES/END_TO_END/TC29_VerifyALL_Links_Myaccount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12979DD7-6DA2-4525-A9F5-18E80E0325EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D32B4B8-E2A4-4EF8-990D-A95AEBD96FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
   <si>
     <t>TestCase</t>
   </si>
@@ -125,9 +125,6 @@
     <t>WAIT</t>
   </si>
   <si>
-    <t>Log out</t>
-  </si>
-  <si>
     <t>GearingPLPHeader</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>PurchasingHistory</t>
   </si>
   <si>
-    <t>Quickorder</t>
-  </si>
-  <si>
     <t>Storerooms</t>
   </si>
   <si>
@@ -237,6 +231,21 @@
   </si>
   <si>
     <t>LoginButton</t>
+  </si>
+  <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>MOUSEOVER</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
   </si>
 </sst>
 </file>
@@ -664,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -697,8 +706,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>65</v>
+      <c r="A2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -711,44 +720,38 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
+      <c r="D4" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
@@ -756,51 +759,51 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
@@ -811,24 +814,18 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
@@ -839,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -854,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -867,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
@@ -882,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -892,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -907,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -922,13 +919,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -940,7 +937,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -953,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>21</v>
@@ -968,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -978,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -996,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1009,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>22</v>
@@ -1024,7 +1021,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -1034,13 +1031,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1049,13 +1046,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1067,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1080,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>23</v>
@@ -1095,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -1105,13 +1102,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1123,7 +1120,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -1136,7 +1133,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>24</v>
@@ -1151,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -1161,13 +1158,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1176,13 +1173,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1194,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -1207,7 +1204,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>25</v>
@@ -1222,7 +1219,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -1232,13 +1229,13 @@
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1247,13 +1244,13 @@
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1265,7 +1262,7 @@
         <v>19</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -1275,10 +1272,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>26</v>
@@ -1290,10 +1287,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -1303,13 +1300,13 @@
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1318,13 +1315,13 @@
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1336,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -1346,13 +1343,13 @@
         <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1361,10 +1358,10 @@
         <v>15</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -1377,67 +1374,67 @@
         <v>57</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>64</v>
+      <c r="B52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
-      <c r="B53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>64</v>
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
@@ -1448,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>59</v>
@@ -1457,122 +1454,66 @@
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="3" t="s">
-        <v>11</v>
+      <c r="B57" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3"/>
-      <c r="B58" s="4" t="s">
-        <v>15</v>
+      <c r="B58" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>61</v>
+      <c r="D60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1584,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1609,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1617,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1625,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1718,10 +1659,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1736,21 +1677,21 @@
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
+      <c r="B18" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1758,15 +1699,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1774,7 +1715,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1782,7 +1723,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1790,7 +1731,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1798,7 +1739,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="b">
         <v>1</v>
@@ -1806,7 +1747,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3" t="b">
         <v>1</v>
@@ -1814,7 +1755,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="b">
         <v>1</v>
@@ -1822,7 +1763,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1830,7 +1771,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1838,7 +1779,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1846,7 +1787,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3" t="b">
         <v>1</v>
@@ -1854,7 +1795,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="b">
         <v>1</v>
@@ -1862,7 +1803,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="b">
         <v>1</v>
@@ -1870,7 +1811,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="b">
         <v>1</v>
@@ -1878,7 +1819,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="b">
         <v>1</v>
@@ -1886,7 +1827,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="b">
         <v>1</v>
@@ -1894,7 +1835,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="b">
         <v>1</v>
@@ -1902,7 +1843,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" s="3" t="b">
         <v>1</v>
@@ -1910,7 +1851,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="b">
         <v>1</v>
@@ -1918,7 +1859,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="3" t="b">
         <v>1</v>
@@ -1926,7 +1867,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="3" t="b">
         <v>1</v>
@@ -1934,10 +1875,26 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="5" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1947,21 +1904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2158,24 +2100,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2192,4 +2132,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>